--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,17 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7BFC48-40A2-4A81-960A-B7B70D0A42E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB545C-7A24-4CE8-B5DC-22FAD528BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
+    <workbookView xWindow="7692" yWindow="2412" windowWidth="13056" windowHeight="8880" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd=9-14" sheetId="2" r:id="rId1"/>
-    <sheet name="2009-04" sheetId="1" r:id="rId2"/>
-    <sheet name="2009-05" sheetId="3" r:id="rId3"/>
-    <sheet name="2009-06" sheetId="4" r:id="rId4"/>
-    <sheet name="2009-07" sheetId="5" r:id="rId5"/>
-    <sheet name="2009-08" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="0.1"/>
   <extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
   <si>
     <t>County Code</t>
   </si>
@@ -157,19 +152,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>CAMDEN'S PROMISE CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMDEN'S PROMISE CS      </t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>FREEDOM ACADEMY CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREEDOM ACADEMY CS       </t>
   </si>
   <si>
     <t>ST</t>
@@ -636,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,12 +752,12 @@
         <v>10</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -828,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
@@ -882,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>24</v>
@@ -938,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>25</v>
@@ -994,10 +977,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>22</v>
@@ -1050,10 +1033,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>22</v>
@@ -1106,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -1118,31 +1101,31 @@
         <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R10" s="6">
         <v>2009</v>
@@ -1162,10 +1145,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -1218,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -1274,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
@@ -1330,10 +1313,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -1386,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>29</v>
@@ -1398,31 +1381,31 @@
         <v>23</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R15" s="6">
         <v>2009</v>
@@ -1442,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>30</v>
@@ -1498,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -1510,31 +1493,31 @@
         <v>23</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R17" s="6">
         <v>2009</v>
@@ -1554,10 +1537,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -1610,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -1666,7 +1649,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>31</v>
@@ -1722,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -1778,10 +1761,10 @@
         <v>20</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -1790,31 +1773,31 @@
         <v>23</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R22" s="6">
         <v>2009</v>
@@ -1834,10 +1817,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -1890,10 +1873,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -1946,10 +1929,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -2002,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -2323,7 +2306,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -2379,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -2491,7 +2474,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>22</v>
@@ -2547,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>22</v>
@@ -2659,40 +2642,40 @@
         <v>21</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="J39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R39" s="5">
         <v>2010</v>
@@ -2771,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>22</v>
@@ -2827,7 +2810,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -2883,7 +2866,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>22</v>
@@ -2948,31 +2931,31 @@
         <v>23</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R44" s="5">
         <v>2010</v>
@@ -2995,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -3051,7 +3034,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -3107,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>22</v>
@@ -3163,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>22</v>
@@ -3219,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>22</v>
@@ -3275,7 +3258,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>22</v>
@@ -3316,7 +3299,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3414,7 +3397,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3637,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>22</v>
@@ -3693,7 +3676,7 @@
         <v>21</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>22</v>
@@ -3805,7 +3788,7 @@
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>22</v>
@@ -3861,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>22</v>
@@ -3973,7 +3956,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>22</v>
@@ -4085,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>22</v>
@@ -4141,7 +4124,7 @@
         <v>21</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>22</v>
@@ -4253,7 +4236,7 @@
         <v>21</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>22</v>
@@ -4309,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>22</v>
@@ -4365,7 +4348,7 @@
         <v>21</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>22</v>
@@ -4421,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>22</v>
@@ -4477,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>22</v>
@@ -4486,31 +4469,31 @@
         <v>23</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R72" s="5">
         <v>2011</v>
@@ -4533,7 +4516,7 @@
         <v>21</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>22</v>
@@ -4642,10 +4625,10 @@
         <v>33</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>36</v>
@@ -4686,7 +4669,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4909,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>22</v>
@@ -4965,7 +4948,7 @@
         <v>21</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>22</v>
@@ -5030,31 +5013,31 @@
         <v>23</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R82" s="5">
         <v>2012</v>
@@ -5077,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>22</v>
@@ -5133,7 +5116,7 @@
         <v>21</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>22</v>
@@ -5301,7 +5284,7 @@
         <v>21</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>22</v>
@@ -5413,7 +5396,7 @@
         <v>21</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>22</v>
@@ -5525,7 +5508,7 @@
         <v>21</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>22</v>
@@ -5581,7 +5564,7 @@
         <v>21</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>22</v>
@@ -5637,7 +5620,7 @@
         <v>21</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>22</v>
@@ -5749,7 +5732,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>22</v>
@@ -5805,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>22</v>
@@ -5858,10 +5841,10 @@
         <v>33</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>36</v>
@@ -5958,7 +5941,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -6181,7 +6164,7 @@
         <v>21</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>22</v>
@@ -6237,7 +6220,7 @@
         <v>21</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>22</v>
@@ -6349,7 +6332,7 @@
         <v>21</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>22</v>
@@ -6405,7 +6388,7 @@
         <v>21</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>22</v>
@@ -6517,7 +6500,7 @@
         <v>21</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>22</v>
@@ -6629,7 +6612,7 @@
         <v>21</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>22</v>
@@ -6741,7 +6724,7 @@
         <v>21</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>22</v>
@@ -6797,7 +6780,7 @@
         <v>21</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>22</v>
@@ -6853,7 +6836,7 @@
         <v>21</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>22</v>
@@ -6965,7 +6948,7 @@
         <v>21</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>22</v>
@@ -7021,7 +7004,7 @@
         <v>21</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>22</v>
@@ -7074,10 +7057,10 @@
         <v>33</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>36</v>
@@ -7130,10 +7113,10 @@
         <v>33</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>36</v>
@@ -7242,10 +7225,10 @@
         <v>33</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>36</v>
@@ -7298,10 +7281,10 @@
         <v>33</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>36</v>
@@ -7354,10 +7337,10 @@
         <v>33</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>36</v>
@@ -7635,7 +7618,7 @@
         <v>21</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>22</v>
@@ -7691,7 +7674,7 @@
         <v>21</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>22</v>
@@ -7803,7 +7786,7 @@
         <v>21</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>22</v>
@@ -7859,7 +7842,7 @@
         <v>21</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>22</v>
@@ -7971,7 +7954,7 @@
         <v>21</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>22</v>
@@ -8083,7 +8066,7 @@
         <v>21</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>22</v>
@@ -8195,7 +8178,7 @@
         <v>21</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>22</v>
@@ -8251,7 +8234,7 @@
         <v>21</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>22</v>
@@ -8307,7 +8290,7 @@
         <v>21</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>22</v>
@@ -8419,7 +8402,7 @@
         <v>21</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>22</v>
@@ -8475,7 +8458,7 @@
         <v>21</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>22</v>
@@ -8527,1538 +8510,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C69CB5D-CADE-452C-B8A5-6F18D765E182}">
-  <dimension ref="A1:R24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
-        <v>103360</v>
-      </c>
-      <c r="J4" s="8">
-        <v>130</v>
-      </c>
-      <c r="K4" s="8">
-        <v>467</v>
-      </c>
-      <c r="L4" s="8">
-        <v>698</v>
-      </c>
-      <c r="M4" s="8">
-        <v>102065</v>
-      </c>
-      <c r="N4" s="8">
-        <v>37</v>
-      </c>
-      <c r="O4" s="8">
-        <v>56.3</v>
-      </c>
-      <c r="P4" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>206.5</v>
-      </c>
-      <c r="R4">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
-        <v>680</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1067</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8">
-        <v>5</v>
-      </c>
-      <c r="L5" s="8">
-        <v>3</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1056</v>
-      </c>
-      <c r="N5" s="8">
-        <v>81.3</v>
-      </c>
-      <c r="O5" s="8">
-        <v>18.7</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>173</v>
-      </c>
-      <c r="R5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>680</v>
-      </c>
-      <c r="C6" s="8">
-        <v>100</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="8">
-        <v>69</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>69</v>
-      </c>
-      <c r="N6" s="8">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="O6" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>173.1</v>
-      </c>
-      <c r="R6">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
-        <v>680</v>
-      </c>
-      <c r="C7" s="8">
-        <v>165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8">
-        <v>60</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>60</v>
-      </c>
-      <c r="N7" s="8">
-        <v>80</v>
-      </c>
-      <c r="O7" s="8">
-        <v>20</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>175.4</v>
-      </c>
-      <c r="R7">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>680</v>
-      </c>
-      <c r="C8" s="8">
-        <v>170</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8">
-        <v>76</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>75</v>
-      </c>
-      <c r="N8" s="8">
-        <v>85.3</v>
-      </c>
-      <c r="O8" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>166.8</v>
-      </c>
-      <c r="R8">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>680</v>
-      </c>
-      <c r="C9" s="8">
-        <v>180</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8">
-        <v>76</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>74</v>
-      </c>
-      <c r="N9" s="8">
-        <v>82.4</v>
-      </c>
-      <c r="O9" s="8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>171.8</v>
-      </c>
-      <c r="R9">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
-        <v>680</v>
-      </c>
-      <c r="C10" s="8">
-        <v>205</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="8">
-        <v>43</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>42</v>
-      </c>
-      <c r="N10" s="8">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="O10" s="8">
-        <v>21.4</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>176.3</v>
-      </c>
-      <c r="R10">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>680</v>
-      </c>
-      <c r="C11" s="8">
-        <v>350</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="8">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>51</v>
-      </c>
-      <c r="N11" s="8">
-        <v>88.2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>11.8</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>169.3</v>
-      </c>
-      <c r="R11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
-        <v>680</v>
-      </c>
-      <c r="C12" s="8">
-        <v>215</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8">
-        <v>30</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>30</v>
-      </c>
-      <c r="N12" s="8">
-        <v>73.3</v>
-      </c>
-      <c r="O12" s="8">
-        <v>26.7</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>174.1</v>
-      </c>
-      <c r="R12">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8">
-        <v>680</v>
-      </c>
-      <c r="C13" s="8">
-        <v>230</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="8">
-        <v>57</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>57</v>
-      </c>
-      <c r="N13" s="8">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="O13" s="8">
-        <v>21.1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>177.5</v>
-      </c>
-      <c r="R13">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8">
-        <v>680</v>
-      </c>
-      <c r="C14" s="8">
-        <v>145</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="8">
-        <v>56</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>56</v>
-      </c>
-      <c r="N14" s="8">
-        <v>76.8</v>
-      </c>
-      <c r="O14" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>173.7</v>
-      </c>
-      <c r="R14">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8">
-        <v>680</v>
-      </c>
-      <c r="C15" s="8">
-        <v>260</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="8">
-        <v>38</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>38</v>
-      </c>
-      <c r="N15" s="8">
-        <v>76.3</v>
-      </c>
-      <c r="O15" s="8">
-        <v>23.7</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>175.1</v>
-      </c>
-      <c r="R15">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8">
-        <v>680</v>
-      </c>
-      <c r="C16" s="8">
-        <v>270</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="8">
-        <v>35</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>35</v>
-      </c>
-      <c r="N16" s="8">
-        <v>82.9</v>
-      </c>
-      <c r="O16" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>178.4</v>
-      </c>
-      <c r="R16">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8">
-        <v>680</v>
-      </c>
-      <c r="C17" s="8">
-        <v>250</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8">
-        <v>680</v>
-      </c>
-      <c r="C18" s="8">
-        <v>175</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="8">
-        <v>62</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>62</v>
-      </c>
-      <c r="N18" s="8">
-        <v>85.5</v>
-      </c>
-      <c r="O18" s="8">
-        <v>12.9</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>173.6</v>
-      </c>
-      <c r="R18">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8">
-        <v>680</v>
-      </c>
-      <c r="C19" s="8">
-        <v>300</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="8">
-        <v>64</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>64</v>
-      </c>
-      <c r="N19" s="8">
-        <v>82.8</v>
-      </c>
-      <c r="O19" s="8">
-        <v>17.2</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>177.9</v>
-      </c>
-      <c r="R19">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8">
-        <v>680</v>
-      </c>
-      <c r="C20" s="8">
-        <v>310</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="8">
-        <v>29</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>29</v>
-      </c>
-      <c r="N20" s="8">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="O20" s="8">
-        <v>27.6</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>174.5</v>
-      </c>
-      <c r="R20">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8">
-        <v>680</v>
-      </c>
-      <c r="C21" s="8">
-        <v>320</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="8">
-        <v>38</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>38</v>
-      </c>
-      <c r="N21" s="8">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="O21" s="8">
-        <v>21.1</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>169.2</v>
-      </c>
-      <c r="R21">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8">
-        <v>680</v>
-      </c>
-      <c r="C22" s="8">
-        <v>330</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="8">
-        <v>41</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>40</v>
-      </c>
-      <c r="N22" s="8">
-        <v>77.5</v>
-      </c>
-      <c r="O22" s="8">
-        <v>22.5</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>181.2</v>
-      </c>
-      <c r="R22">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>7</v>
-      </c>
-      <c r="B23" s="8">
-        <v>680</v>
-      </c>
-      <c r="C23" s="8">
-        <v>340</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="8">
-        <v>31</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>3</v>
-      </c>
-      <c r="M23" s="8">
-        <v>28</v>
-      </c>
-      <c r="N23" s="8">
-        <v>60.7</v>
-      </c>
-      <c r="O23" s="8">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>183.9</v>
-      </c>
-      <c r="R23">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8">
-        <v>680</v>
-      </c>
-      <c r="C24" s="8">
-        <v>360</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="8">
-        <v>127</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8">
-        <v>2</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>124</v>
-      </c>
-      <c r="N24" s="8">
-        <v>83.1</v>
-      </c>
-      <c r="O24" s="8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>168.4</v>
-      </c>
-      <c r="R24">
-        <v>2009</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2023B-AB5B-43C4-BF83-45EA7A51F6E2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70F3C6B-BCF9-4D45-8A57-623263308FFD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1A16E-6FF0-4473-9BBD-4B425838C991}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6597CBAD-7CC7-4CB4-934E-D9A0CD8AE491}">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
-        <v>80</v>
-      </c>
-      <c r="B1" s="5">
-        <v>7109</v>
-      </c>
-      <c r="C1" s="5">
-        <v>931</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="5">
-        <v>59</v>
-      </c>
-      <c r="J1" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5">
-        <v>0</v>
-      </c>
-      <c r="L1" s="5">
-        <v>0</v>
-      </c>
-      <c r="M1" s="5">
-        <v>59</v>
-      </c>
-      <c r="N1" s="5">
-        <v>33.9</v>
-      </c>
-      <c r="O1" s="5">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="P1" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>207.5</v>
-      </c>
-      <c r="R1" s="5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>80</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6215</v>
-      </c>
-      <c r="C2" s="5">
-        <v>910</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="5">
-        <v>85</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>83</v>
-      </c>
-      <c r="N2" s="5">
-        <v>25.3</v>
-      </c>
-      <c r="O2" s="5">
-        <v>74.7</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>208.9</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>80</v>
-      </c>
-      <c r="B3" s="5">
-        <v>6240</v>
-      </c>
-      <c r="C3" s="5">
-        <v>900</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="5">
-        <v>67</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>67</v>
-      </c>
-      <c r="N3" s="5">
-        <v>55.2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>44.8</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>195</v>
-      </c>
-      <c r="R3" s="5">
-        <v>2009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB545C-7A24-4CE8-B5DC-22FAD528BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B40C6-7445-4139-83DF-FD9D31CEA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7692" yWindow="2412" windowWidth="13056" windowHeight="8880" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="62">
   <si>
     <t>County Code</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Special Needs</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Enroll</t>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>CAMDEN COMMUNITY CHARTER SCHOOL</t>
+  </si>
+  <si>
+    <t>YEAR</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,33 +650,15 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -688,31 +670,34 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
+      <c r="R2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -725,39 +710,39 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -805,20 +790,20 @@
         <v>680</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="8">
         <v>1170</v>
@@ -862,19 +847,19 @@
         <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="8">
         <v>74</v>
@@ -918,19 +903,19 @@
         <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8">
         <v>50</v>
@@ -974,19 +959,19 @@
         <v>170</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="8">
         <v>78</v>
@@ -1030,19 +1015,19 @@
         <v>180</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8">
         <v>90</v>
@@ -1086,46 +1071,46 @@
         <v>190</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R10" s="6">
         <v>2009</v>
@@ -1142,19 +1127,19 @@
         <v>205</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8">
         <v>66</v>
@@ -1198,19 +1183,19 @@
         <v>350</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8">
         <v>52</v>
@@ -1254,19 +1239,19 @@
         <v>215</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8">
         <v>53</v>
@@ -1310,19 +1295,19 @@
         <v>230</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8">
         <v>50</v>
@@ -1366,46 +1351,46 @@
         <v>245</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R15" s="6">
         <v>2009</v>
@@ -1422,19 +1407,19 @@
         <v>145</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="8">
         <v>55</v>
@@ -1478,46 +1463,46 @@
         <v>260</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R17" s="6">
         <v>2009</v>
@@ -1534,19 +1519,19 @@
         <v>270</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8">
         <v>36</v>
@@ -1590,19 +1575,19 @@
         <v>250</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="8">
         <v>91</v>
@@ -1646,19 +1631,19 @@
         <v>175</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="8">
         <v>68</v>
@@ -1702,19 +1687,19 @@
         <v>300</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="8">
         <v>66</v>
@@ -1758,46 +1743,46 @@
         <v>310</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R22" s="6">
         <v>2009</v>
@@ -1814,19 +1799,19 @@
         <v>320</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="8">
         <v>52</v>
@@ -1870,19 +1855,19 @@
         <v>330</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8">
         <v>71</v>
@@ -1926,19 +1911,19 @@
         <v>340</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="8">
         <v>36</v>
@@ -1982,19 +1967,19 @@
         <v>360</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="8">
         <v>100</v>
@@ -2038,19 +2023,19 @@
         <v>931</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I27" s="8">
         <v>59</v>
@@ -2131,20 +2116,20 @@
         <v>680</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="8">
         <v>1147</v>
@@ -2188,19 +2173,19 @@
         <v>100</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" s="8">
         <v>53</v>
@@ -2244,19 +2229,19 @@
         <v>165</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="8">
         <v>55</v>
@@ -2300,19 +2285,19 @@
         <v>170</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="8">
         <v>97</v>
@@ -2356,19 +2341,19 @@
         <v>180</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="8">
         <v>76</v>
@@ -2412,19 +2397,19 @@
         <v>190</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="8">
         <v>68</v>
@@ -2468,19 +2453,19 @@
         <v>205</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8">
         <v>58</v>
@@ -2524,19 +2509,19 @@
         <v>350</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8">
         <v>64</v>
@@ -2580,19 +2565,19 @@
         <v>215</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="8">
         <v>34</v>
@@ -2636,46 +2621,46 @@
         <v>230</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R39" s="5">
         <v>2010</v>
@@ -2692,19 +2677,19 @@
         <v>145</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="8">
         <v>33</v>
@@ -2748,19 +2733,19 @@
         <v>260</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" s="8">
         <v>37</v>
@@ -2804,19 +2789,19 @@
         <v>270</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="8">
         <v>34</v>
@@ -2860,19 +2845,19 @@
         <v>250</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="8">
         <v>84</v>
@@ -2916,46 +2901,46 @@
         <v>175</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R44" s="5">
         <v>2010</v>
@@ -2972,19 +2957,19 @@
         <v>300</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="8">
         <v>49</v>
@@ -3028,19 +3013,19 @@
         <v>310</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="8">
         <v>41</v>
@@ -3084,19 +3069,19 @@
         <v>320</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" s="8">
         <v>59</v>
@@ -3140,19 +3125,19 @@
         <v>330</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" s="8">
         <v>45</v>
@@ -3196,19 +3181,19 @@
         <v>340</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="8">
         <v>34</v>
@@ -3252,19 +3237,19 @@
         <v>360</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="8">
         <v>118</v>
@@ -3299,7 +3284,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3350,19 +3335,19 @@
         <v>931</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I52" s="8">
         <v>60</v>
@@ -3397,7 +3382,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3445,20 +3430,20 @@
         <v>680</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I54" s="8">
         <v>1061</v>
@@ -3502,19 +3487,19 @@
         <v>100</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" s="8">
         <v>51</v>
@@ -3558,19 +3543,19 @@
         <v>165</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="8">
         <v>58</v>
@@ -3614,19 +3599,19 @@
         <v>170</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57" s="8">
         <v>69</v>
@@ -3670,19 +3655,19 @@
         <v>180</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I58" s="8">
         <v>73</v>
@@ -3726,19 +3711,19 @@
         <v>190</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59" s="8">
         <v>69</v>
@@ -3782,19 +3767,19 @@
         <v>205</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I60" s="8">
         <v>51</v>
@@ -3838,19 +3823,19 @@
         <v>350</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61" s="8">
         <v>60</v>
@@ -3894,19 +3879,19 @@
         <v>215</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I62" s="8">
         <v>42</v>
@@ -3950,19 +3935,19 @@
         <v>230</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63" s="8">
         <v>47</v>
@@ -4006,19 +3991,19 @@
         <v>145</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" s="8">
         <v>43</v>
@@ -4062,19 +4047,19 @@
         <v>260</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65" s="8">
         <v>42</v>
@@ -4118,19 +4103,19 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I66" s="8">
         <v>76</v>
@@ -4174,19 +4159,19 @@
         <v>175</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I67" s="8">
         <v>57</v>
@@ -4230,19 +4215,19 @@
         <v>300</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8">
         <v>51</v>
@@ -4286,19 +4271,19 @@
         <v>310</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="8">
         <v>40</v>
@@ -4342,19 +4327,19 @@
         <v>320</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I70" s="8">
         <v>61</v>
@@ -4398,19 +4383,19 @@
         <v>330</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="8">
         <v>46</v>
@@ -4454,46 +4439,46 @@
         <v>340</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R72" s="5">
         <v>2011</v>
@@ -4510,19 +4495,19 @@
         <v>360</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8">
         <v>89</v>
@@ -4566,19 +4551,19 @@
         <v>931</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I74" s="8">
         <v>60</v>
@@ -4622,19 +4607,19 @@
         <v>906</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="G75" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I75" s="8">
         <v>44</v>
@@ -4669,7 +4654,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4717,20 +4702,20 @@
         <v>680</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" s="5">
         <v>1079</v>
@@ -4774,19 +4759,19 @@
         <v>100</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I78" s="5">
         <v>62</v>
@@ -4830,19 +4815,19 @@
         <v>165</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" s="5">
         <v>48</v>
@@ -4886,19 +4871,19 @@
         <v>170</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" s="5">
         <v>91</v>
@@ -4942,19 +4927,19 @@
         <v>180</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="5">
         <v>64</v>
@@ -4998,46 +4983,46 @@
         <v>190</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R82" s="5">
         <v>2012</v>
@@ -5054,19 +5039,19 @@
         <v>205</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" s="5">
         <v>55</v>
@@ -5110,19 +5095,19 @@
         <v>350</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I84" s="5">
         <v>59</v>
@@ -5166,19 +5151,19 @@
         <v>210</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I85" s="5">
         <v>25</v>
@@ -5222,19 +5207,19 @@
         <v>215</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="5">
         <v>42</v>
@@ -5278,19 +5263,19 @@
         <v>230</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87" s="5">
         <v>45</v>
@@ -5334,19 +5319,19 @@
         <v>145</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="5">
         <v>62</v>
@@ -5390,19 +5375,19 @@
         <v>250</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I89" s="5">
         <v>87</v>
@@ -5446,19 +5431,19 @@
         <v>175</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I90" s="5">
         <v>51</v>
@@ -5502,19 +5487,19 @@
         <v>300</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I91" s="5">
         <v>69</v>
@@ -5558,19 +5543,19 @@
         <v>310</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I92" s="5">
         <v>54</v>
@@ -5614,19 +5599,19 @@
         <v>320</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I93" s="5">
         <v>52</v>
@@ -5670,19 +5655,19 @@
         <v>80</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I94" s="5">
         <v>32</v>
@@ -5726,19 +5711,19 @@
         <v>340</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="5">
         <v>29</v>
@@ -5782,19 +5767,19 @@
         <v>360</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I96" s="5">
         <v>88</v>
@@ -5838,19 +5823,19 @@
         <v>906</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G97" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I97" s="5">
         <v>42</v>
@@ -5894,19 +5879,19 @@
         <v>931</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I98" s="5">
         <v>60</v>
@@ -5941,7 +5926,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -5989,20 +5974,20 @@
         <v>680</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I100" s="8">
         <v>1020</v>
@@ -6046,19 +6031,19 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I101" s="8">
         <v>47</v>
@@ -6102,19 +6087,19 @@
         <v>165</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I102" s="8">
         <v>32</v>
@@ -6158,19 +6143,19 @@
         <v>170</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I103" s="8">
         <v>89</v>
@@ -6214,19 +6199,19 @@
         <v>180</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I104" s="8">
         <v>67</v>
@@ -6270,19 +6255,19 @@
         <v>190</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I105" s="8">
         <v>78</v>
@@ -6326,19 +6311,19 @@
         <v>205</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I106" s="8">
         <v>46</v>
@@ -6382,19 +6367,19 @@
         <v>350</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I107" s="8">
         <v>56</v>
@@ -6438,19 +6423,19 @@
         <v>210</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I108" s="8">
         <v>27</v>
@@ -6494,19 +6479,19 @@
         <v>230</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I109" s="8">
         <v>43</v>
@@ -6550,19 +6535,19 @@
         <v>145</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I110" s="8">
         <v>69</v>
@@ -6606,19 +6591,19 @@
         <v>250</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I111" s="8">
         <v>91</v>
@@ -6662,19 +6647,19 @@
         <v>175</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I112" s="8">
         <v>52</v>
@@ -6718,19 +6703,19 @@
         <v>300</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I113" s="8">
         <v>53</v>
@@ -6774,19 +6759,19 @@
         <v>310</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I114" s="8">
         <v>66</v>
@@ -6830,19 +6815,19 @@
         <v>320</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I115" s="8">
         <v>60</v>
@@ -6886,19 +6871,19 @@
         <v>80</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I116" s="8">
         <v>33</v>
@@ -6942,19 +6927,19 @@
         <v>340</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I117" s="8">
         <v>28</v>
@@ -6998,19 +6983,19 @@
         <v>360</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I118" s="8">
         <v>83</v>
@@ -7054,19 +7039,19 @@
         <v>906</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E119" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="G119" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I119" s="8">
         <v>47</v>
@@ -7110,19 +7095,19 @@
         <v>968</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E120" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="G120" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I120" s="8">
         <v>30</v>
@@ -7166,19 +7151,19 @@
         <v>931</v>
       </c>
       <c r="D121" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="G121" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="H121" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I121" s="8">
         <v>120</v>
@@ -7222,19 +7207,19 @@
         <v>945</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E122" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F122" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="G122" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I122" s="8">
         <v>20</v>
@@ -7278,19 +7263,19 @@
         <v>906</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E123" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="G123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I123" s="8">
         <v>48</v>
@@ -7334,19 +7319,19 @@
         <v>968</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E124" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="G124" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I124" s="8">
         <v>30</v>
@@ -7390,19 +7375,19 @@
         <v>931</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="G125" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="H125" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I125" s="8">
         <v>121</v>
@@ -7443,20 +7428,20 @@
         <v>680</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I126" s="8">
         <v>925</v>
@@ -7500,19 +7485,19 @@
         <v>100</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I127" s="8">
         <v>40</v>
@@ -7556,19 +7541,19 @@
         <v>165</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I128" s="8">
         <v>42</v>
@@ -7612,19 +7597,19 @@
         <v>170</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I129" s="8">
         <v>62</v>
@@ -7668,19 +7653,19 @@
         <v>180</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I130" s="8">
         <v>63</v>
@@ -7724,19 +7709,19 @@
         <v>190</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I131" s="8">
         <v>67</v>
@@ -7780,19 +7765,19 @@
         <v>205</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I132" s="8">
         <v>53</v>
@@ -7836,19 +7821,19 @@
         <v>350</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I133" s="8">
         <v>71</v>
@@ -7892,19 +7877,19 @@
         <v>210</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I134" s="8">
         <v>19</v>
@@ -7948,19 +7933,19 @@
         <v>230</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I135" s="8">
         <v>39</v>
@@ -8004,19 +7989,19 @@
         <v>145</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I136" s="8">
         <v>62</v>
@@ -8060,19 +8045,19 @@
         <v>250</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I137" s="8">
         <v>61</v>
@@ -8116,19 +8101,19 @@
         <v>175</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I138" s="8">
         <v>50</v>
@@ -8172,19 +8157,19 @@
         <v>300</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I139" s="8">
         <v>49</v>
@@ -8228,19 +8213,19 @@
         <v>310</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I140" s="8">
         <v>53</v>
@@ -8284,19 +8269,19 @@
         <v>320</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I141" s="8">
         <v>63</v>
@@ -8340,19 +8325,19 @@
         <v>80</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I142" s="8">
         <v>43</v>
@@ -8396,19 +8381,19 @@
         <v>340</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I143" s="8">
         <v>30</v>
@@ -8452,19 +8437,19 @@
         <v>360</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I144" s="8">
         <v>58</v>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B40C6-7445-4139-83DF-FD9D31CEA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEFF6C-CBAA-489F-9910-DDCC8817769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7692" yWindow="2412" windowWidth="13056" windowHeight="8880" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="62">
   <si>
     <t>County Code</t>
   </si>
@@ -625,7 +625,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -650,15 +650,36 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEFF6C-CBAA-489F-9910-DDCC8817769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E57EC9-3533-4F94-A808-E577CBA18A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7692" yWindow="2412" windowWidth="13056" windowHeight="8880" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="62">
   <si>
     <t>County Code</t>
   </si>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +819,9 @@
       <c r="E5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2142,10 +2144,12 @@
       <c r="D30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="E30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
       </c>
@@ -3459,7 +3463,9 @@
       <c r="E54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G54" s="8" t="s">
         <v>21</v>
       </c>
@@ -4731,7 +4737,9 @@
       <c r="E77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G77" s="5" t="s">
         <v>21</v>
       </c>
@@ -6003,7 +6011,9 @@
       <c r="E100" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G100" s="8" t="s">
         <v>21</v>
       </c>
@@ -7457,7 +7467,9 @@
       <c r="E126" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G126" s="8" t="s">
         <v>21</v>
       </c>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E57EC9-3533-4F94-A808-E577CBA18A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4FB703-F308-4AEF-BBC7-F28138BA928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="2412" windowWidth="13056" windowHeight="8880" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd=9-14" sheetId="2" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4FB703-F308-4AEF-BBC7-F28138BA928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57B7BBF-70E9-4CF4-AEAA-3D912EA88332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="62">
   <si>
     <t>County Code</t>
   </si>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" workbookViewId="0">
+      <selection activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8515,6 +8515,48 @@
         <v>2014</v>
       </c>
     </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8">
+        <v>101424</v>
+      </c>
+      <c r="J145" s="8">
+        <v>188</v>
+      </c>
+      <c r="K145" s="8">
+        <v>468</v>
+      </c>
+      <c r="L145" s="8">
+        <v>950</v>
+      </c>
+      <c r="M145" s="8">
+        <v>99818</v>
+      </c>
+      <c r="N145" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="O145" s="8">
+        <v>61.2</v>
+      </c>
+      <c r="P145" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>205.8</v>
+      </c>
+      <c r="R145" s="5">
+        <v>2014</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G1:G3"/>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B943E42-9F32-423A-8570-3C86C51501CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562C228-33F0-47CD-8EDB-219566EDA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="84">
   <si>
     <t>County Code</t>
   </si>
@@ -289,12 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">CHARTER SC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEAP ACADEMY UNIVERSITY CS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEAP ACADEMY UNIVERSITY CHARTER SCH </t>
   </si>
 </sst>
 </file>
@@ -695,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="U149" sqref="U149"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10322,10 +10316,10 @@
         <v>83</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>31</v>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562C228-33F0-47CD-8EDB-219566EDA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F2DC2-0189-47B8-A311-DDD678AB425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" workbookViewId="0">
       <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>

--- a/pre intv data.xlsx
+++ b/pre intv data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F2DC2-0189-47B8-A311-DDD678AB425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47C9E6E-C8A8-44EF-A6C3-E6274F554976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{250B8A1A-66F9-40D1-8046-DFA9791D9B53}"/>
   </bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5148D9-034F-4C4D-BE56-99E3FAF12C8B}">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
